--- a/grupos/3BLCM - Estadisticos 20211.xlsx
+++ b/grupos/3BLCM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="156">
   <si>
     <t>Materia</t>
   </si>
@@ -185,19 +185,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Camarillo Aburto Raymundo</t>
+  </si>
+  <si>
+    <t>Avila Coronado Julieta</t>
+  </si>
+  <si>
+    <t>Ángel Martínez Noe Cristobal</t>
+  </si>
+  <si>
+    <t>Velasco Sánchez David</t>
+  </si>
+  <si>
     <t>Molina Quezada Raúl</t>
-  </si>
-  <si>
-    <t>Camarillo Aburto Raymundo</t>
-  </si>
-  <si>
-    <t>Avila Coronado Julieta</t>
-  </si>
-  <si>
-    <t>Ángel Martínez Noe Cristobal</t>
-  </si>
-  <si>
-    <t>Velasco Sánchez David</t>
   </si>
   <si>
     <t>Caballero Rosas María Teresa</t>
@@ -1051,7 +1051,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -1105,7 +1105,7 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U5">
         <v>9</v>
@@ -1128,7 +1128,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1143,7 +1143,7 @@
         <v>-1</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -1182,7 +1182,7 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U6">
         <v>5</v>
@@ -1197,7 +1197,7 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1220,7 +1220,7 @@
         <v>-1</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>-1</v>
@@ -1274,7 +1274,7 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1297,7 +1297,7 @@
         <v>6</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>-1</v>
@@ -1351,7 +1351,7 @@
         <v>6</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1436,7 +1436,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -1490,7 +1490,7 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U10">
         <v>10</v>
@@ -1513,7 +1513,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -1528,7 +1528,7 @@
         <v>9</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -1567,7 +1567,7 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U11">
         <v>9</v>
@@ -1582,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1590,7 +1590,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1605,7 +1605,7 @@
         <v>9</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <v>-1</v>
@@ -1644,7 +1644,7 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U12">
         <v>8</v>
@@ -1659,7 +1659,7 @@
         <v>9</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1682,7 +1682,7 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -1736,7 +1736,7 @@
         <v>10</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1744,7 +1744,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -1759,7 +1759,7 @@
         <v>9</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>-1</v>
@@ -1798,7 +1798,7 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U14">
         <v>9</v>
@@ -1813,7 +1813,7 @@
         <v>9</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1821,7 +1821,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -1836,7 +1836,7 @@
         <v>8</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H15">
         <v>-1</v>
@@ -1875,7 +1875,7 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U15">
         <v>9</v>
@@ -1890,7 +1890,7 @@
         <v>8</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1898,7 +1898,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -1913,7 +1913,7 @@
         <v>8</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -1952,7 +1952,7 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U16">
         <v>9</v>
@@ -1967,7 +1967,7 @@
         <v>8</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1990,7 +1990,7 @@
         <v>7</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -2044,7 +2044,7 @@
         <v>7</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2067,7 +2067,7 @@
         <v>-1</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -2121,7 +2121,7 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2144,7 +2144,7 @@
         <v>-1</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H19">
         <v>-1</v>
@@ -2198,7 +2198,7 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2221,7 +2221,7 @@
         <v>6</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -2275,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2298,7 +2298,7 @@
         <v>6</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H21">
         <v>-1</v>
@@ -2352,7 +2352,7 @@
         <v>6</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2375,7 +2375,7 @@
         <v>-1</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H22">
         <v>-1</v>
@@ -2429,7 +2429,7 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2529,7 +2529,7 @@
         <v>-1</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H24">
         <v>-1</v>
@@ -2583,7 +2583,7 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2606,7 +2606,7 @@
         <v>-1</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H25">
         <v>-1</v>
@@ -2660,7 +2660,7 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2668,7 +2668,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -2683,7 +2683,7 @@
         <v>8</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H26">
         <v>-1</v>
@@ -2722,7 +2722,7 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U26">
         <v>6</v>
@@ -2737,7 +2737,7 @@
         <v>8</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2822,7 +2822,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -2837,7 +2837,7 @@
         <v>9</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -2876,7 +2876,7 @@
         <v>-1</v>
       </c>
       <c r="T28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U28">
         <v>9</v>
@@ -2891,7 +2891,7 @@
         <v>9</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2914,7 +2914,7 @@
         <v>7</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H29">
         <v>-1</v>
@@ -2968,7 +2968,7 @@
         <v>7</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2991,7 +2991,7 @@
         <v>-1</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H30">
         <v>-1</v>
@@ -3045,7 +3045,7 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -3068,7 +3068,7 @@
         <v>6</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H31">
         <v>-1</v>
@@ -3122,7 +3122,7 @@
         <v>6</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -3130,7 +3130,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -3145,7 +3145,7 @@
         <v>10</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H32">
         <v>-1</v>
@@ -3184,7 +3184,7 @@
         <v>-1</v>
       </c>
       <c r="T32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U32">
         <v>10</v>
@@ -3199,7 +3199,7 @@
         <v>10</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -3207,7 +3207,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -3222,7 +3222,7 @@
         <v>7</v>
       </c>
       <c r="G33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H33">
         <v>-1</v>
@@ -3261,7 +3261,7 @@
         <v>-1</v>
       </c>
       <c r="T33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U33">
         <v>6</v>
@@ -3276,7 +3276,7 @@
         <v>7</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -3299,7 +3299,7 @@
         <v>6</v>
       </c>
       <c r="G34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H34">
         <v>-1</v>
@@ -3353,7 +3353,7 @@
         <v>6</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3376,7 +3376,7 @@
         <v>-1</v>
       </c>
       <c r="G35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H35">
         <v>-1</v>
@@ -3430,7 +3430,7 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -3438,7 +3438,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -3453,7 +3453,7 @@
         <v>8</v>
       </c>
       <c r="G36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H36">
         <v>-1</v>
@@ -3492,7 +3492,7 @@
         <v>-1</v>
       </c>
       <c r="T36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U36">
         <v>9</v>
@@ -3507,7 +3507,7 @@
         <v>8</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -3515,7 +3515,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C37">
         <v>9</v>
@@ -3569,7 +3569,7 @@
         <v>-1</v>
       </c>
       <c r="T37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U37">
         <v>9</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -3652,27 +3652,30 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>41.18</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>8.4</v>
+      </c>
       <c r="I2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>58.82</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -3681,27 +3684,30 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>61.76</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>7.9</v>
+      </c>
       <c r="I3">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>38.24</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -3710,30 +3716,30 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>64.70999999999999</v>
+      </c>
+      <c r="G4">
+        <v>35.29</v>
+      </c>
+      <c r="H4">
+        <v>6.9</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>61.76</v>
-      </c>
-      <c r="G4">
+      <c r="J4">
         <v>0</v>
-      </c>
-      <c r="H4">
-        <v>7.9</v>
-      </c>
-      <c r="I4">
-        <v>13</v>
-      </c>
-      <c r="J4">
-        <v>38.24</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -3742,19 +3748,19 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>64.70999999999999</v>
+        <v>70.59</v>
       </c>
       <c r="G5">
-        <v>35.29</v>
+        <v>29.41</v>
       </c>
       <c r="H5">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3765,7 +3771,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -3774,25 +3780,25 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>70.59</v>
+        <v>79.41</v>
       </c>
       <c r="G6">
-        <v>29.41</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.1</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3881,7 +3887,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3901,7 +3907,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3921,7 +3927,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3941,7 +3947,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3961,7 +3967,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4001,7 +4007,7 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4021,7 +4027,7 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4041,7 +4047,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4061,7 +4067,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4081,7 +4087,7 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4121,7 +4127,7 @@
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4141,7 +4147,7 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4161,7 +4167,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4181,7 +4187,7 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4201,7 +4207,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4241,7 +4247,7 @@
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4261,7 +4267,7 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4281,7 +4287,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4301,7 +4307,7 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4321,7 +4327,7 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4361,7 +4367,7 @@
         <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4381,7 +4387,7 @@
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4401,7 +4407,7 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4421,7 +4427,7 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4441,7 +4447,7 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4481,7 +4487,7 @@
         <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4501,7 +4507,7 @@
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4521,7 +4527,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4541,7 +4547,7 @@
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4561,7 +4567,7 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4601,7 +4607,7 @@
         <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4621,7 +4627,7 @@
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4641,7 +4647,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4661,7 +4667,7 @@
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4681,7 +4687,7 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4721,7 +4727,7 @@
         <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4741,7 +4747,7 @@
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4761,7 +4767,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4781,7 +4787,7 @@
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4801,7 +4807,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4841,7 +4847,7 @@
         <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4861,7 +4867,7 @@
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4881,7 +4887,7 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4901,7 +4907,7 @@
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4921,7 +4927,7 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4961,7 +4967,7 @@
         <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4981,7 +4987,7 @@
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5001,7 +5007,7 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5021,7 +5027,7 @@
         <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5041,7 +5047,7 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5081,7 +5087,7 @@
         <v>6</v>
       </c>
       <c r="F62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5101,7 +5107,7 @@
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5121,7 +5127,7 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5141,7 +5147,7 @@
         <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5161,7 +5167,7 @@
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5201,7 +5207,7 @@
         <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5221,7 +5227,7 @@
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5241,7 +5247,7 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5261,7 +5267,7 @@
         <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5281,7 +5287,7 @@
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5321,7 +5327,7 @@
         <v>6</v>
       </c>
       <c r="F74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5341,7 +5347,7 @@
         <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5361,7 +5367,7 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5381,7 +5387,7 @@
         <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5401,7 +5407,7 @@
         <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5441,7 +5447,7 @@
         <v>6</v>
       </c>
       <c r="F80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5461,7 +5467,7 @@
         <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5481,7 +5487,7 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5501,7 +5507,7 @@
         <v>5</v>
       </c>
       <c r="F83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5521,7 +5527,7 @@
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5561,7 +5567,7 @@
         <v>6</v>
       </c>
       <c r="F86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5581,7 +5587,7 @@
         <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5601,7 +5607,7 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5621,7 +5627,7 @@
         <v>5</v>
       </c>
       <c r="F89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5641,7 +5647,7 @@
         <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5681,7 +5687,7 @@
         <v>6</v>
       </c>
       <c r="F92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5701,7 +5707,7 @@
         <v>9</v>
       </c>
       <c r="F93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5721,7 +5727,7 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5741,7 +5747,7 @@
         <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5761,7 +5767,7 @@
         <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5801,7 +5807,7 @@
         <v>6</v>
       </c>
       <c r="F98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5821,7 +5827,7 @@
         <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5841,7 +5847,7 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5861,7 +5867,7 @@
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5881,7 +5887,7 @@
         <v>7</v>
       </c>
       <c r="F102" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5921,7 +5927,7 @@
         <v>6</v>
       </c>
       <c r="F104" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5941,7 +5947,7 @@
         <v>9</v>
       </c>
       <c r="F105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5961,7 +5967,7 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5981,7 +5987,7 @@
         <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6001,7 +6007,7 @@
         <v>7</v>
       </c>
       <c r="F108" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6041,7 +6047,7 @@
         <v>6</v>
       </c>
       <c r="F110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6061,7 +6067,7 @@
         <v>9</v>
       </c>
       <c r="F111" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6081,7 +6087,7 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6101,7 +6107,7 @@
         <v>5</v>
       </c>
       <c r="F113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6121,7 +6127,7 @@
         <v>7</v>
       </c>
       <c r="F114" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6161,7 +6167,7 @@
         <v>6</v>
       </c>
       <c r="F116" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6181,7 +6187,7 @@
         <v>9</v>
       </c>
       <c r="F117" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6201,7 +6207,7 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6221,7 +6227,7 @@
         <v>5</v>
       </c>
       <c r="F119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6241,7 +6247,7 @@
         <v>7</v>
       </c>
       <c r="F120" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6281,7 +6287,7 @@
         <v>6</v>
       </c>
       <c r="F122" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6301,7 +6307,7 @@
         <v>9</v>
       </c>
       <c r="F123" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6321,7 +6327,7 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6341,7 +6347,7 @@
         <v>5</v>
       </c>
       <c r="F125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6361,7 +6367,7 @@
         <v>7</v>
       </c>
       <c r="F126" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6401,7 +6407,7 @@
         <v>6</v>
       </c>
       <c r="F128" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6421,7 +6427,7 @@
         <v>9</v>
       </c>
       <c r="F129" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6441,7 +6447,7 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6461,7 +6467,7 @@
         <v>5</v>
       </c>
       <c r="F131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6481,7 +6487,7 @@
         <v>7</v>
       </c>
       <c r="F132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6521,7 +6527,7 @@
         <v>6</v>
       </c>
       <c r="F134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6541,7 +6547,7 @@
         <v>9</v>
       </c>
       <c r="F135" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6561,7 +6567,7 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6581,7 +6587,7 @@
         <v>5</v>
       </c>
       <c r="F137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6601,7 +6607,7 @@
         <v>7</v>
       </c>
       <c r="F138" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6641,7 +6647,7 @@
         <v>6</v>
       </c>
       <c r="F140" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6661,7 +6667,7 @@
         <v>9</v>
       </c>
       <c r="F141" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6681,7 +6687,7 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -6701,7 +6707,7 @@
         <v>5</v>
       </c>
       <c r="F143" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -6721,7 +6727,7 @@
         <v>7</v>
       </c>
       <c r="F144" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -6761,7 +6767,7 @@
         <v>6</v>
       </c>
       <c r="F146" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -6781,7 +6787,7 @@
         <v>9</v>
       </c>
       <c r="F147" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6801,7 +6807,7 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6821,7 +6827,7 @@
         <v>5</v>
       </c>
       <c r="F149" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -6841,7 +6847,7 @@
         <v>7</v>
       </c>
       <c r="F150" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6881,7 +6887,7 @@
         <v>6</v>
       </c>
       <c r="F152" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6901,7 +6907,7 @@
         <v>9</v>
       </c>
       <c r="F153" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6921,7 +6927,7 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -6941,7 +6947,7 @@
         <v>5</v>
       </c>
       <c r="F155" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -6961,7 +6967,7 @@
         <v>7</v>
       </c>
       <c r="F156" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -7001,7 +7007,7 @@
         <v>6</v>
       </c>
       <c r="F158" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7021,7 +7027,7 @@
         <v>9</v>
       </c>
       <c r="F159" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7041,7 +7047,7 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7061,7 +7067,7 @@
         <v>5</v>
       </c>
       <c r="F161" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7081,7 +7087,7 @@
         <v>7</v>
       </c>
       <c r="F162" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7121,7 +7127,7 @@
         <v>6</v>
       </c>
       <c r="F164" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7141,7 +7147,7 @@
         <v>9</v>
       </c>
       <c r="F165" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7161,7 +7167,7 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7181,7 +7187,7 @@
         <v>5</v>
       </c>
       <c r="F167" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7201,7 +7207,7 @@
         <v>7</v>
       </c>
       <c r="F168" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7241,7 +7247,7 @@
         <v>6</v>
       </c>
       <c r="F170" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7261,7 +7267,7 @@
         <v>9</v>
       </c>
       <c r="F171" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7281,7 +7287,7 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7301,7 +7307,7 @@
         <v>5</v>
       </c>
       <c r="F173" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7321,7 +7327,7 @@
         <v>7</v>
       </c>
       <c r="F174" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7361,7 +7367,7 @@
         <v>6</v>
       </c>
       <c r="F176" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7381,7 +7387,7 @@
         <v>9</v>
       </c>
       <c r="F177" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7401,7 +7407,7 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7421,7 +7427,7 @@
         <v>5</v>
       </c>
       <c r="F179" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7441,7 +7447,7 @@
         <v>7</v>
       </c>
       <c r="F180" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7481,7 +7487,7 @@
         <v>6</v>
       </c>
       <c r="F182" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7501,7 +7507,7 @@
         <v>9</v>
       </c>
       <c r="F183" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7521,7 +7527,7 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7541,7 +7547,7 @@
         <v>5</v>
       </c>
       <c r="F185" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7561,7 +7567,7 @@
         <v>7</v>
       </c>
       <c r="F186" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7601,7 +7607,7 @@
         <v>6</v>
       </c>
       <c r="F188" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7621,7 +7627,7 @@
         <v>9</v>
       </c>
       <c r="F189" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7641,7 +7647,7 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7661,7 +7667,7 @@
         <v>5</v>
       </c>
       <c r="F191" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7681,7 +7687,7 @@
         <v>7</v>
       </c>
       <c r="F192" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7721,7 +7727,7 @@
         <v>6</v>
       </c>
       <c r="F194" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -7741,7 +7747,7 @@
         <v>9</v>
       </c>
       <c r="F195" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -7761,7 +7767,7 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -7781,7 +7787,7 @@
         <v>5</v>
       </c>
       <c r="F197" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -7801,7 +7807,7 @@
         <v>7</v>
       </c>
       <c r="F198" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -7841,7 +7847,7 @@
         <v>6</v>
       </c>
       <c r="F200" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -7861,7 +7867,7 @@
         <v>9</v>
       </c>
       <c r="F201" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -7881,7 +7887,7 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -7901,7 +7907,7 @@
         <v>5</v>
       </c>
       <c r="F203" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -7921,7 +7927,7 @@
         <v>7</v>
       </c>
       <c r="F204" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8563,7 +8569,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8598,45 +8604,45 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920283</v>
+        <v>20330051920284</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920283</v>
+        <v>20330051920284</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -8644,22 +8650,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920390</v>
+        <v>20330051920295</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -8667,22 +8673,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920390</v>
+        <v>20330051920295</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -8690,22 +8696,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920290</v>
+        <v>20330051920298</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -8713,45 +8719,45 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920290</v>
+        <v>20330051920298</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920292</v>
+        <v>20330051920311</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -8759,45 +8765,45 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920292</v>
+        <v>20330051920311</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920293</v>
+        <v>20330051920313</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -8805,22 +8811,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920293</v>
+        <v>20330051920313</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -8828,22 +8834,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920294</v>
+        <v>20330051920283</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -8851,22 +8857,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920294</v>
+        <v>20330051920390</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -8874,22 +8880,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920394</v>
+        <v>20330051920292</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -8897,19 +8903,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20330051920394</v>
+        <v>20330051920299</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
         <v>55</v>
@@ -8920,22 +8926,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>20330051920299</v>
+        <v>20330051920309</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -8943,392 +8949,24 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>20330051920299</v>
+        <v>20330051920316</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920300</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920300</v>
-      </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20330051920304</v>
-      </c>
-      <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>20330051920304</v>
-      </c>
-      <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>20330051920308</v>
-      </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>20330051920308</v>
-      </c>
-      <c r="B23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>20330051920309</v>
-      </c>
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>20330051920309</v>
-      </c>
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>20330051920216</v>
-      </c>
-      <c r="B26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>20330051920216</v>
-      </c>
-      <c r="B27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>20330051920379</v>
-      </c>
-      <c r="B28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>20330051920379</v>
-      </c>
-      <c r="B29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>20330051920314</v>
-      </c>
-      <c r="B30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" t="s">
-        <v>154</v>
-      </c>
-      <c r="E30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>20330051920314</v>
-      </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>20330051920316</v>
-      </c>
-      <c r="B32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>20330051920316</v>
-      </c>
-      <c r="B33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33">
         <v>-1</v>
       </c>
     </row>
